--- a/similarities/split_global/harmonic_similarity_timestamps_103.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_103.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C']]</t>
+          <t>['F', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['Ab', 'Ab:7', 'Db:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.465952', '0:00:06.886543')]</t>
+          <t>('0:00:02.610000', '0:00:06.900000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+          <t>('0:00:15.420000', '0:00:24.760000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=2.61</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=15.42</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>isophonics_146</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:18.540000'), ('0:00:06.880000', '0:00:15.960000')]</t>
+          <t>('0:00:05.915850', '0:00:14.867142')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:01', '0:00:07.820000'), ('0:00:00.240000', '0:00:05.980000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=6.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab'], ['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:46.750000', '0:00:47.790000'), ('0:00:14.400000', '0:00:16.430000')]</t>
+          <t>('0:00:19.500000', '0:00:41.740000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.820000'), ('0:00:52.580000', '0:00:58.920000')]</t>
+          <t>('0:00:48.250000', '0:00:59.490000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=0.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=52.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>jaah_63</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:min', 'G:dim7', 'F:min', 'G:dim7', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C', 'C:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:43.140000', '0:01:00.240000'), ('0:02:04.920000', '0:02:08.840000')]</t>
+          <t>('0:00:00.840000', '0:00:13.370000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:05.240000'), ('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:00.240000', '0:00:11.440000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=43.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-63#t=0.84</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=0.24</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:min', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A/3']]</t>
+          <t>['Bb:min', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:32.486000', '0:00:37.053000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:13.527000', '0:00:17.058000')]</t>
+          <t>('0:00:03.650000', '0:00:06.290000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=32.486</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=3.65</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>isophonics_259</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_132</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['F#:min', 'A', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G#:min', 'B/5', 'E']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:45.682000', '0:00:52.884000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:44.200000', '0:00:59.980000')]</t>
+          <t>('0:00:03.466145', '0:00:07.994036')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=45.682</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=44.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-132#t=3.466145</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>['B:maj', 'F#:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:22.098788')]</t>
+          <t>('0:00:10.200000', '0:00:12.320000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
+          <t>('0:00:06.536000', '0:00:11.853000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.2</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.150000', '0:00:05.734000')]</t>
+          <t>('0:01:08.040000', '0:01:19')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>jaah_75</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:min7', 'G:7', 'C:maj6']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:maj6']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:29', '0:03:02.720000')]</t>
+          <t>('0:00:20.730000', '0:00:24.030000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:40.100000')]</t>
+          <t>('0:00:20.840000', '0:00:24.660000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=149.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=20.73</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=20.84</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:01.150000', '0:00:05.734000')]</t>
+          <t>('0:00:00.300000', '0:00:02.820000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>isophonics_245</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F#:min', 'B:min', 'F#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:min', 'C:min', 'G:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:08.340000', '0:01:24.380000')]</t>
+          <t>('0:00:36.732085', '0:00:41.248366')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:03.220000', '0:00:18.300000')]</t>
+          <t>('0:00:11.020000', '0:00:21.680000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=68.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=36.732085</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=3.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=11.02</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:41.500000', '0:01:48.300000'), ('0:00:17.120000', '0:00:24.900000')]</t>
+          <t>('0:00:45.580000', '0:00:59.100000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:43.660000', '0:01:50.880000'), ('0:02:20.480000', '0:02:25.980000')]</t>
+          <t>('0:00:22.300000', '0:00:49.660000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=101.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=17.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=103.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=22.3</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Db/2', 'Ab:maj', 'Ab:7']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:01.320000', '0:01:06.020000')]</t>
+          <t>('0:00:42.150000', '0:01:07.840000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:30.236000', '0:01:38.612000')]</t>
+          <t>('0:00:11.380000', '0:00:24.380000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=90.236']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=11.38</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+          <t>('0:00:43.180000', '0:00:45.100000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:08.300000', '0:00:12.960000')]</t>
+          <t>('0:00:01.540000', '0:00:06.880000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+          <t>('0:01:15.560000', '0:01:35.680000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:10.953139', '0:00:19.672232')]</t>
+          <t>('0:00:18.160000', '0:00:47.440000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=75.56</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=18.16</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
